--- a/biology/Botanique/Kiese/Kiese.xlsx
+++ b/biology/Botanique/Kiese/Kiese.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Kiese' est un cultivar de rosier obtenu en 1910 par le rosiériste allemand Hermann Kiese. Cet hybride de Rosa canina est largement commercialisé aujourd'hui[1] et apprécié pour sa floraison abondante.
+'Kiese' est un cultivar de rosier obtenu en 1910 par le rosiériste allemand Hermann Kiese. Cet hybride de Rosa canina est largement commercialisé aujourd'hui et apprécié pour sa floraison abondante.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce rosier pentaploïde est issu d'un croisement Rosa canina x 'Général Jacqueminot' (Roussel 1853). Il se présente sous la forme d'un arbuste dense pouvant atteindre 250 cm de hauteur[2] aux branches presque inermes. Les fleurs simples ou semi-doubles légèrement parfumées sont d'un rose foncé virant au rouge carmin. La floraison non remontante a lieu à la fin du printemps et au début de l'été[3].
-Sa zone de rusticité est de 6b à 9b[4]. Il est donc résistant aux hivers froids.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce rosier pentaploïde est issu d'un croisement Rosa canina x 'Général Jacqueminot' (Roussel 1853). Il se présente sous la forme d'un arbuste dense pouvant atteindre 250 cm de hauteur aux branches presque inermes. Les fleurs simples ou semi-doubles légèrement parfumées sont d'un rose foncé virant au rouge carmin. La floraison non remontante a lieu à la fin du printemps et au début de l'été.
+Sa zone de rusticité est de 6b à 9b. Il est donc résistant aux hivers froids.
 On peut notamment l'admirer à la roseraie de Dresde, en Allemagne.
 </t>
         </is>
